--- a/data/negative_signals/Indirectly connected (A-X-B) - Latanoprost - pancytopenia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Latanoprost - pancytopenia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="463">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,85 +173,1186 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>4027545</t>
+  </si>
+  <si>
+    <t>pancytopenia</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>118380690</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>124536832</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>58647800</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>52570385</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>63140792</t>
+  </si>
+  <si>
+    <t>52535073</t>
+  </si>
+  <si>
+    <t>4041622</t>
+  </si>
+  <si>
+    <t>felis catus</t>
+  </si>
+  <si>
+    <t>8066251</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>71915310</t>
+  </si>
+  <si>
+    <t>80193743</t>
+  </si>
+  <si>
+    <t>282421</t>
+  </si>
+  <si>
+    <t>monkeys</t>
+  </si>
+  <si>
+    <t>8066225</t>
+  </si>
+  <si>
+    <t>85731608</t>
+  </si>
+  <si>
+    <t>65552632</t>
+  </si>
+  <si>
+    <t>81808092</t>
+  </si>
+  <si>
+    <t>5158816</t>
+  </si>
+  <si>
+    <t>stevens-johnson syndrome</t>
+  </si>
+  <si>
+    <t>13454730</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>40248286</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>4042009</t>
+  </si>
+  <si>
+    <t>toxic epidermal necrolysis</t>
+  </si>
+  <si>
+    <t>13454738</t>
+  </si>
+  <si>
+    <t>40248292</t>
+  </si>
+  <si>
+    <t>3204847</t>
+  </si>
+  <si>
+    <t>drug-induced stevens johnson syndrome</t>
+  </si>
+  <si>
+    <t>13454736</t>
+  </si>
+  <si>
+    <t>40248291</t>
+  </si>
+  <si>
+    <t>1936620</t>
+  </si>
+  <si>
+    <t>mycoplasma-induced stevens-johnson syndrome</t>
+  </si>
+  <si>
+    <t>13454734</t>
+  </si>
+  <si>
+    <t>40248290</t>
+  </si>
+  <si>
+    <t>1932384</t>
+  </si>
+  <si>
+    <t>stevens-johnson syndrome toxic epidermal necrolysis spectrum</t>
+  </si>
+  <si>
+    <t>13454732</t>
+  </si>
+  <si>
+    <t>40248288</t>
+  </si>
+  <si>
+    <t>5127262</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>79143922</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>13454683</t>
+  </si>
+  <si>
+    <t>119427685</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>3170822</t>
+  </si>
+  <si>
+    <t>acetazolamide</t>
+  </si>
+  <si>
+    <t>96308738</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>85096434</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>12962796</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>104437291</t>
+  </si>
+  <si>
+    <t>59359543</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>72155217</t>
+  </si>
+  <si>
+    <t>56380168</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>119719036</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>68136398</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>75579643</t>
+  </si>
+  <si>
+    <t>89112718</t>
+  </si>
+  <si>
+    <t>65065710</t>
+  </si>
+  <si>
+    <t>51487131</t>
+  </si>
+  <si>
+    <t>104112611</t>
+  </si>
+  <si>
+    <t>52829538</t>
+  </si>
+  <si>
+    <t>53281010</t>
+  </si>
+  <si>
+    <t>54743153</t>
+  </si>
+  <si>
+    <t>60640908</t>
+  </si>
+  <si>
+    <t>61989647</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>118419444</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>113044647</t>
+  </si>
+  <si>
+    <t>62385576</t>
+  </si>
+  <si>
+    <t>82959229</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>54406790</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>117772643</t>
+  </si>
+  <si>
+    <t>39417350</t>
+  </si>
+  <si>
+    <t>59964599</t>
+  </si>
+  <si>
+    <t>55683527</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>39417339</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>75251481</t>
+  </si>
+  <si>
+    <t>71812667</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>65551480</t>
+  </si>
+  <si>
+    <t>108336624</t>
+  </si>
+  <si>
+    <t>102305153</t>
+  </si>
+  <si>
+    <t>102462539</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>53048743</t>
+  </si>
+  <si>
+    <t>86361203</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>105123280</t>
+  </si>
+  <si>
+    <t>120628421</t>
+  </si>
+  <si>
+    <t>65107401</t>
+  </si>
+  <si>
+    <t>132074659</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>117371289</t>
+  </si>
+  <si>
+    <t>307661</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>90972706</t>
+  </si>
+  <si>
+    <t>58071013</t>
+  </si>
+  <si>
+    <t>281347</t>
+  </si>
+  <si>
+    <t>long-term care</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>59579826</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>129618903</t>
+  </si>
+  <si>
+    <t>133368</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>96076165</t>
+  </si>
+  <si>
+    <t>51293460</t>
+  </si>
+  <si>
+    <t>63230339</t>
+  </si>
+  <si>
+    <t>133248817</t>
+  </si>
+  <si>
+    <t>685378</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>126262530</t>
+  </si>
+  <si>
+    <t>80817577</t>
+  </si>
+  <si>
+    <t>52670484</t>
+  </si>
+  <si>
+    <t>4747186</t>
+  </si>
+  <si>
+    <t>apoptosis</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>119072456</t>
+  </si>
+  <si>
+    <t>52273346</t>
+  </si>
+  <si>
+    <t>120217135</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>98548613</t>
+  </si>
+  <si>
+    <t>109621171</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>115936948</t>
+  </si>
+  <si>
+    <t>83354991</t>
+  </si>
+  <si>
+    <t>55050913</t>
+  </si>
+  <si>
+    <t>58464452</t>
+  </si>
+  <si>
+    <t>4034949</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>126421288</t>
+  </si>
+  <si>
+    <t>57896700</t>
+  </si>
+  <si>
+    <t>64307283</t>
+  </si>
+  <si>
     <t>301179</t>
   </si>
   <si>
     <t>child</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>4027545</t>
-  </si>
-  <si>
-    <t>pancytopenia</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>123770029</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>143656394</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>121736691</t>
+    <t>57351894</t>
+  </si>
+  <si>
+    <t>55354771</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>120042974</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>140357081</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>184593739</t>
-  </si>
-  <si>
-    <t>190676427</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117545241</t>
-  </si>
-  <si>
-    <t>125031454</t>
-  </si>
-  <si>
-    <t>4048979</t>
-  </si>
-  <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>129549500</t>
-  </si>
-  <si>
-    <t>118774007</t>
+    <t>77292004</t>
+  </si>
+  <si>
+    <t>53731794</t>
+  </si>
+  <si>
+    <t>73974821</t>
+  </si>
+  <si>
+    <t>613023</t>
+  </si>
+  <si>
+    <t>body tissue</t>
+  </si>
+  <si>
+    <t>117901314</t>
+  </si>
+  <si>
+    <t>57632354</t>
+  </si>
+  <si>
+    <t>4040861</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>92237037</t>
+  </si>
+  <si>
+    <t>112233802</t>
+  </si>
+  <si>
+    <t>54666747</t>
+  </si>
+  <si>
+    <t>52121578</t>
+  </si>
+  <si>
+    <t>68706111</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>77292843</t>
+  </si>
+  <si>
+    <t>115152557</t>
+  </si>
+  <si>
+    <t>88140515</t>
+  </si>
+  <si>
+    <t>is not administered to</t>
+  </si>
+  <si>
+    <t>51741174</t>
+  </si>
+  <si>
+    <t>53010180</t>
+  </si>
+  <si>
+    <t>57625947</t>
+  </si>
+  <si>
+    <t>51266796</t>
+  </si>
+  <si>
+    <t>80504552</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>55850878</t>
+  </si>
+  <si>
+    <t>70057176</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>76715263</t>
+  </si>
+  <si>
+    <t>63571651</t>
+  </si>
+  <si>
+    <t>58315597</t>
+  </si>
+  <si>
+    <t>2977165</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>131324923</t>
+  </si>
+  <si>
+    <t>87523972</t>
+  </si>
+  <si>
+    <t>2449038</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>116167159</t>
+  </si>
+  <si>
+    <t>72314803</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>64335574</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>129369033</t>
+  </si>
+  <si>
+    <t>82872379</t>
+  </si>
+  <si>
+    <t>812094</t>
+  </si>
+  <si>
+    <t>operative surgical procedures</t>
+  </si>
+  <si>
+    <t>108195796</t>
+  </si>
+  <si>
+    <t>68459973</t>
+  </si>
+  <si>
+    <t>96887739</t>
+  </si>
+  <si>
+    <t>76548383</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>70421104</t>
+  </si>
+  <si>
+    <t>91129728</t>
+  </si>
+  <si>
+    <t>98487970</t>
+  </si>
+  <si>
+    <t>83081239</t>
+  </si>
+  <si>
+    <t>98663005</t>
+  </si>
+  <si>
+    <t>5317663</t>
+  </si>
+  <si>
+    <t>prednisolone</t>
+  </si>
+  <si>
+    <t>129913311</t>
+  </si>
+  <si>
+    <t>52374362</t>
+  </si>
+  <si>
+    <t>4821498</t>
+  </si>
+  <si>
+    <t>cytokine</t>
+  </si>
+  <si>
+    <t>114559468</t>
+  </si>
+  <si>
+    <t>66672227</t>
+  </si>
+  <si>
+    <t>111171252</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>75972727</t>
+  </si>
+  <si>
+    <t>53984337</t>
+  </si>
+  <si>
+    <t>4028728</t>
+  </si>
+  <si>
+    <t>house mice</t>
+  </si>
+  <si>
+    <t>120975014</t>
+  </si>
+  <si>
+    <t>68733001</t>
+  </si>
+  <si>
+    <t>3208634</t>
+  </si>
+  <si>
+    <t>evaluation procedure</t>
+  </si>
+  <si>
+    <t>92682102</t>
+  </si>
+  <si>
+    <t>54135808</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>60691373</t>
+  </si>
+  <si>
+    <t>115916220</t>
+  </si>
+  <si>
+    <t>2506281</t>
+  </si>
+  <si>
+    <t>adverse effects</t>
+  </si>
+  <si>
+    <t>57263126</t>
+  </si>
+  <si>
+    <t>66480421</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>110413114</t>
+  </si>
+  <si>
+    <t>98838453</t>
+  </si>
+  <si>
+    <t>110152006</t>
+  </si>
+  <si>
+    <t>96594491</t>
+  </si>
+  <si>
+    <t>102105981</t>
+  </si>
+  <si>
+    <t>2449328</t>
+  </si>
+  <si>
+    <t>cell injury</t>
+  </si>
+  <si>
+    <t>121385882</t>
+  </si>
+  <si>
+    <t>81158775</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>132253930</t>
+  </si>
+  <si>
+    <t>79556397</t>
+  </si>
+  <si>
+    <t>111084</t>
+  </si>
+  <si>
+    <t>genes</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>100488002</t>
+  </si>
+  <si>
+    <t>124485171</t>
+  </si>
+  <si>
+    <t>78069094</t>
+  </si>
+  <si>
+    <t>65341274</t>
+  </si>
+  <si>
+    <t>793212</t>
+  </si>
+  <si>
+    <t>ganciclovir</t>
+  </si>
+  <si>
+    <t>121767654</t>
+  </si>
+  <si>
+    <t>75243308</t>
+  </si>
+  <si>
+    <t>89015091</t>
+  </si>
+  <si>
+    <t>5793192</t>
+  </si>
+  <si>
+    <t>steroids</t>
+  </si>
+  <si>
+    <t>90976641</t>
+  </si>
+  <si>
+    <t>91823905</t>
+  </si>
+  <si>
+    <t>79309365</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>97027368</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>59242018</t>
+  </si>
+  <si>
+    <t>90973561</t>
+  </si>
+  <si>
+    <t>52187636</t>
+  </si>
+  <si>
+    <t>75868315</t>
+  </si>
+  <si>
+    <t>110139322</t>
+  </si>
+  <si>
+    <t>52188086</t>
+  </si>
+  <si>
+    <t>110753579</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>56733177</t>
+  </si>
+  <si>
+    <t>55872611</t>
+  </si>
+  <si>
+    <t>58315186</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>93198315</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>73832614</t>
+  </si>
+  <si>
+    <t>73972620</t>
+  </si>
+  <si>
+    <t>105298473</t>
+  </si>
+  <si>
+    <t>51727428</t>
+  </si>
+  <si>
+    <t>5316514</t>
+  </si>
+  <si>
+    <t>virus diseases</t>
+  </si>
+  <si>
+    <t>88745099</t>
+  </si>
+  <si>
+    <t>102123093</t>
+  </si>
+  <si>
+    <t>113306008</t>
+  </si>
+  <si>
+    <t>86142242</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>86282733</t>
+  </si>
+  <si>
+    <t>97047844</t>
+  </si>
+  <si>
+    <t>132721693</t>
+  </si>
+  <si>
+    <t>91228110</t>
+  </si>
+  <si>
+    <t>5080812</t>
+  </si>
+  <si>
+    <t>alopecia</t>
+  </si>
+  <si>
+    <t>98976605</t>
+  </si>
+  <si>
+    <t>98946676</t>
+  </si>
+  <si>
+    <t>58832154</t>
+  </si>
+  <si>
+    <t>5028471</t>
+  </si>
+  <si>
+    <t>biopsy</t>
+  </si>
+  <si>
+    <t>123550583</t>
+  </si>
+  <si>
+    <t>77768138</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>128064073</t>
+  </si>
+  <si>
+    <t>4824456</t>
+  </si>
+  <si>
+    <t>antigens</t>
+  </si>
+  <si>
+    <t>107602095</t>
+  </si>
+  <si>
+    <t>113276576</t>
+  </si>
+  <si>
+    <t>47573</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>95476224</t>
+  </si>
+  <si>
+    <t>119083151</t>
+  </si>
+  <si>
+    <t>105773084</t>
+  </si>
+  <si>
+    <t>does not augment</t>
+  </si>
+  <si>
+    <t>76075720</t>
+  </si>
+  <si>
+    <t>455077</t>
+  </si>
+  <si>
+    <t>caucasoid race</t>
+  </si>
+  <si>
+    <t>125851380</t>
+  </si>
+  <si>
+    <t>117818619</t>
+  </si>
+  <si>
+    <t>122127427</t>
+  </si>
+  <si>
+    <t>45119</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>100114824</t>
+  </si>
+  <si>
+    <t>67376442</t>
+  </si>
+  <si>
+    <t>125789328</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>76368606</t>
+  </si>
+  <si>
+    <t>74009477</t>
+  </si>
+  <si>
+    <t>106483143</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>108394046</t>
+  </si>
+  <si>
+    <t>59539208</t>
+  </si>
+  <si>
+    <t>3805896</t>
+  </si>
+  <si>
+    <t>physical findings</t>
+  </si>
+  <si>
+    <t>86629574</t>
+  </si>
+  <si>
+    <t>128008055</t>
+  </si>
+  <si>
+    <t>104610546</t>
+  </si>
+  <si>
+    <t>3781389</t>
+  </si>
+  <si>
+    <t>mice, knockout</t>
+  </si>
+  <si>
+    <t>125043675</t>
+  </si>
+  <si>
+    <t>122536394</t>
+  </si>
+  <si>
+    <t>3779305</t>
+  </si>
+  <si>
+    <t>consumption-archaic term for tb</t>
+  </si>
+  <si>
+    <t>116954859</t>
+  </si>
+  <si>
+    <t>123068964</t>
+  </si>
+  <si>
+    <t>3246085</t>
+  </si>
+  <si>
+    <t>division (surgical procedure)</t>
+  </si>
+  <si>
+    <t>109598410</t>
+  </si>
+  <si>
+    <t>55959435</t>
+  </si>
+  <si>
+    <t>3202301</t>
+  </si>
+  <si>
+    <t>systemic arterial pressure</t>
+  </si>
+  <si>
+    <t>124288304</t>
+  </si>
+  <si>
+    <t>55327381</t>
+  </si>
+  <si>
+    <t>2965028</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>97860094</t>
+  </si>
+  <si>
+    <t>109285123</t>
   </si>
   <si>
     <t>2940375</t>
@@ -260,1081 +1361,22 @@
     <t>symptoms</t>
   </si>
   <si>
-    <t>179376084</t>
-  </si>
-  <si>
-    <t>156722241</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>130354362</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>120419592</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>133101390</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>147641166</t>
-  </si>
-  <si>
-    <t>4041622</t>
-  </si>
-  <si>
-    <t>felis catus</t>
-  </si>
-  <si>
-    <t>138358822</t>
-  </si>
-  <si>
-    <t>74488771</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>146561784</t>
-  </si>
-  <si>
-    <t>5158816</t>
-  </si>
-  <si>
-    <t>stevens-johnson syndrome</t>
-  </si>
-  <si>
-    <t>79676453</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>106438210</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>4042009</t>
-  </si>
-  <si>
-    <t>toxic epidermal necrolysis</t>
-  </si>
-  <si>
-    <t>79676465</t>
-  </si>
-  <si>
-    <t>106438216</t>
-  </si>
-  <si>
-    <t>3204847</t>
-  </si>
-  <si>
-    <t>drug-induced stevens johnson syndrome</t>
-  </si>
-  <si>
-    <t>79676462</t>
-  </si>
-  <si>
-    <t>106438214</t>
-  </si>
-  <si>
-    <t>1936620</t>
-  </si>
-  <si>
-    <t>mycoplasma-induced stevens-johnson syndrome</t>
-  </si>
-  <si>
-    <t>79676459</t>
-  </si>
-  <si>
-    <t>106438212</t>
-  </si>
-  <si>
-    <t>1932384</t>
-  </si>
-  <si>
-    <t>stevens-johnson syndrome toxic epidermal necrolysis spectrum</t>
-  </si>
-  <si>
-    <t>79676456</t>
-  </si>
-  <si>
-    <t>106438211</t>
-  </si>
-  <si>
-    <t>5127262</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>145546738</t>
-  </si>
-  <si>
-    <t>79676384</t>
-  </si>
-  <si>
-    <t>185625870</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>170651155</t>
-  </si>
-  <si>
-    <t>125812058</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>138501097</t>
-  </si>
-  <si>
-    <t>122753017</t>
-  </si>
-  <si>
-    <t>282421</t>
-  </si>
-  <si>
-    <t>monkeys</t>
-  </si>
-  <si>
-    <t>152111500</t>
-  </si>
-  <si>
-    <t>74488749</t>
-  </si>
-  <si>
-    <t>131908369</t>
-  </si>
-  <si>
-    <t>148210880</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>118411241</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>125704652</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>142260520</t>
-  </si>
-  <si>
-    <t>176369087</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>176875270</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>163261895</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>118410588</t>
-  </si>
-  <si>
-    <t>157159254</t>
-  </si>
-  <si>
-    <t>123228136</t>
-  </si>
-  <si>
-    <t>140444228</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>122253853</t>
-  </si>
-  <si>
-    <t>159426490</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>117953514</t>
-  </si>
-  <si>
-    <t>140184931</t>
-  </si>
-  <si>
-    <t>124743959</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>171496684</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>179265667</t>
-  </si>
-  <si>
-    <t>128855358</t>
-  </si>
-  <si>
-    <t>184613012</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>149408766</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>120875328</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>105769201</t>
-  </si>
-  <si>
-    <t>183913395</t>
-  </si>
-  <si>
-    <t>126391518</t>
-  </si>
-  <si>
-    <t>122114102</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>119335352</t>
-  </si>
-  <si>
-    <t>168662106</t>
-  </si>
-  <si>
-    <t>168424442</t>
-  </si>
-  <si>
-    <t>141720423</t>
-  </si>
-  <si>
-    <t>171238747</t>
-  </si>
-  <si>
-    <t>152736225</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>131907157</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>138214476</t>
-  </si>
-  <si>
-    <t>105769190</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>174515770</t>
-  </si>
-  <si>
-    <t>131583173</t>
-  </si>
-  <si>
-    <t>186839492</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>198283081</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>183592632</t>
-  </si>
-  <si>
-    <t>4034949</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>192638873</t>
-  </si>
-  <si>
-    <t>124372794</t>
-  </si>
-  <si>
-    <t>130797275</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>182145690</t>
-  </si>
-  <si>
-    <t>149733564</t>
-  </si>
-  <si>
-    <t>121417289</t>
-  </si>
-  <si>
-    <t>124896466</t>
-  </si>
-  <si>
-    <t>307661</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>157158360</t>
-  </si>
-  <si>
-    <t>124476781</t>
-  </si>
-  <si>
-    <t>281347</t>
-  </si>
-  <si>
-    <t>long-term care</t>
-  </si>
-  <si>
-    <t>125991062</t>
-  </si>
-  <si>
-    <t>195825554</t>
-  </si>
-  <si>
-    <t>685378</t>
-  </si>
-  <si>
-    <t>persons</t>
-  </si>
-  <si>
-    <t>147265690</t>
-  </si>
-  <si>
-    <t>192456176</t>
-  </si>
-  <si>
-    <t>118947926</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>164747782</t>
-  </si>
-  <si>
-    <t>175835350</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>162211523</t>
-  </si>
-  <si>
-    <t>117491569</t>
-  </si>
-  <si>
-    <t>199441321</t>
-  </si>
-  <si>
-    <t>129696812</t>
-  </si>
-  <si>
-    <t>613023</t>
-  </si>
-  <si>
-    <t>body tissue</t>
-  </si>
-  <si>
-    <t>184043460</t>
-  </si>
-  <si>
-    <t>124015244</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>143171242</t>
-  </si>
-  <si>
-    <t>124745382</t>
-  </si>
-  <si>
-    <t>129944752</t>
-  </si>
-  <si>
-    <t>2977165</t>
-  </si>
-  <si>
-    <t>detection</t>
-  </si>
-  <si>
-    <t>197487715</t>
-  </si>
-  <si>
-    <t>153769366</t>
-  </si>
-  <si>
-    <t>2449038</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>182367237</t>
-  </si>
-  <si>
-    <t>138728642</t>
-  </si>
-  <si>
-    <t>111084</t>
-  </si>
-  <si>
-    <t>genes</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>190677277</t>
-  </si>
-  <si>
-    <t>166689725</t>
-  </si>
-  <si>
-    <t>144527318</t>
-  </si>
-  <si>
-    <t>131699560</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>130722867</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>149299467</t>
-  </si>
-  <si>
-    <t>195595266</t>
-  </si>
-  <si>
-    <t>812094</t>
-  </si>
-  <si>
-    <t>operative surgical procedures</t>
-  </si>
-  <si>
-    <t>163077287</t>
-  </si>
-  <si>
-    <t>174415997</t>
-  </si>
-  <si>
-    <t>134874731</t>
-  </si>
-  <si>
-    <t>143035444</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>136833505</t>
-  </si>
-  <si>
-    <t>157320645</t>
-  </si>
-  <si>
-    <t>164698183</t>
-  </si>
-  <si>
-    <t>149455648</t>
-  </si>
-  <si>
-    <t>164895301</t>
-  </si>
-  <si>
-    <t>5317663</t>
-  </si>
-  <si>
-    <t>prednisolone</t>
-  </si>
-  <si>
-    <t>196101389</t>
-  </si>
-  <si>
-    <t>118619011</t>
-  </si>
-  <si>
-    <t>5028471</t>
-  </si>
-  <si>
-    <t>biopsy</t>
-  </si>
-  <si>
-    <t>189765611</t>
-  </si>
-  <si>
-    <t>144205514</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>194251444</t>
-  </si>
-  <si>
-    <t>4821498</t>
-  </si>
-  <si>
-    <t>cytokine</t>
-  </si>
-  <si>
-    <t>180766791</t>
-  </si>
-  <si>
-    <t>133161333</t>
-  </si>
-  <si>
-    <t>177344545</t>
-  </si>
-  <si>
-    <t>120389700</t>
-  </si>
-  <si>
-    <t>142361170</t>
-  </si>
-  <si>
-    <t>47573</t>
-  </si>
-  <si>
-    <t>cells</t>
-  </si>
-  <si>
-    <t>171991308</t>
-  </si>
-  <si>
-    <t>does not augment</t>
-  </si>
-  <si>
-    <t>185292461</t>
-  </si>
-  <si>
-    <t>161708072</t>
-  </si>
-  <si>
-    <t>142417869</t>
-  </si>
-  <si>
-    <t>4747186</t>
-  </si>
-  <si>
-    <t>apoptosis</t>
-  </si>
-  <si>
-    <t>185270388</t>
-  </si>
-  <si>
-    <t>118509702</t>
-  </si>
-  <si>
-    <t>186424897</t>
-  </si>
-  <si>
-    <t>4028728</t>
-  </si>
-  <si>
-    <t>house mice</t>
-  </si>
-  <si>
-    <t>187184999</t>
-  </si>
-  <si>
-    <t>132338403</t>
-  </si>
-  <si>
-    <t>3208634</t>
-  </si>
-  <si>
-    <t>evaluation procedure</t>
-  </si>
-  <si>
-    <t>158877494</t>
-  </si>
-  <si>
-    <t>120529083</t>
-  </si>
-  <si>
-    <t>3170822</t>
-  </si>
-  <si>
-    <t>acetazolamide</t>
-  </si>
-  <si>
-    <t>162510717</t>
-  </si>
-  <si>
-    <t>79356147</t>
-  </si>
-  <si>
-    <t>151520496</t>
-  </si>
-  <si>
-    <t>2986464</t>
-  </si>
-  <si>
-    <t>injection procedure</t>
-  </si>
-  <si>
-    <t>127089790</t>
-  </si>
-  <si>
-    <t>182138688</t>
-  </si>
-  <si>
-    <t>2506281</t>
-  </si>
-  <si>
-    <t>adverse effects</t>
-  </si>
-  <si>
-    <t>123678710</t>
-  </si>
-  <si>
-    <t>132837360</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>165040730</t>
-  </si>
-  <si>
-    <t>176641906</t>
-  </si>
-  <si>
-    <t>176337190</t>
-  </si>
-  <si>
-    <t>168293686</t>
-  </si>
-  <si>
-    <t>162827077</t>
-  </si>
-  <si>
-    <t>2449328</t>
-  </si>
-  <si>
-    <t>cell injury</t>
-  </si>
-  <si>
-    <t>187530667</t>
-  </si>
-  <si>
-    <t>147597160</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>198444752</t>
-  </si>
-  <si>
-    <t>145958141</t>
-  </si>
-  <si>
-    <t>793212</t>
-  </si>
-  <si>
-    <t>ganciclovir</t>
-  </si>
-  <si>
-    <t>187959108</t>
-  </si>
-  <si>
-    <t>155284614</t>
-  </si>
-  <si>
-    <t>139204050</t>
-  </si>
-  <si>
-    <t>5793192</t>
-  </si>
-  <si>
-    <t>steroids</t>
-  </si>
-  <si>
-    <t>157994880</t>
-  </si>
-  <si>
-    <t>157162260</t>
-  </si>
-  <si>
-    <t>143611628</t>
-  </si>
-  <si>
-    <t>5316514</t>
-  </si>
-  <si>
-    <t>virus diseases</t>
-  </si>
-  <si>
-    <t>154921672</t>
-  </si>
-  <si>
-    <t>168337056</t>
-  </si>
-  <si>
-    <t>152522083</t>
-  </si>
-  <si>
-    <t>179434384</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>163239480</t>
-  </si>
-  <si>
-    <t>152729968</t>
-  </si>
-  <si>
-    <t>198912738</t>
-  </si>
-  <si>
-    <t>157459753</t>
-  </si>
-  <si>
-    <t>5080812</t>
-  </si>
-  <si>
-    <t>alopecia</t>
-  </si>
-  <si>
-    <t>165092392</t>
-  </si>
-  <si>
-    <t>165092848</t>
-  </si>
-  <si>
-    <t>125281270</t>
-  </si>
-  <si>
-    <t>4824456</t>
-  </si>
-  <si>
-    <t>antigens</t>
-  </si>
-  <si>
-    <t>173821259</t>
-  </si>
-  <si>
-    <t>179447169</t>
-  </si>
-  <si>
-    <t>455077</t>
-  </si>
-  <si>
-    <t>caucasoid race</t>
-  </si>
-  <si>
-    <t>191991044</t>
-  </si>
-  <si>
-    <t>183960697</t>
-  </si>
-  <si>
-    <t>188318950</t>
-  </si>
-  <si>
-    <t>45119</t>
-  </si>
-  <si>
-    <t>inflammation</t>
-  </si>
-  <si>
-    <t>133711499</t>
-  </si>
-  <si>
-    <t>191995044</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>142756548</t>
-  </si>
-  <si>
-    <t>166316868</t>
-  </si>
-  <si>
-    <t>140446015</t>
-  </si>
-  <si>
-    <t>172679473</t>
-  </si>
-  <si>
-    <t>4040861</t>
-  </si>
-  <si>
-    <t>complication</t>
-  </si>
-  <si>
-    <t>158363572</t>
-  </si>
-  <si>
-    <t>178429197</t>
-  </si>
-  <si>
-    <t>118364748</t>
-  </si>
-  <si>
-    <t>121026337</t>
-  </si>
-  <si>
-    <t>135094501</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>154321904</t>
-  </si>
-  <si>
-    <t>is not administered to</t>
-  </si>
-  <si>
-    <t>181353444</t>
-  </si>
-  <si>
-    <t>117939636</t>
-  </si>
-  <si>
-    <t>119358672</t>
-  </si>
-  <si>
-    <t>143657328</t>
-  </si>
-  <si>
-    <t>136456680</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>124118165</t>
-  </si>
-  <si>
-    <t>117459771</t>
-  </si>
-  <si>
-    <t>146882467</t>
-  </si>
-  <si>
-    <t>122253539</t>
-  </si>
-  <si>
-    <t>3811276</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>174574121</t>
-  </si>
-  <si>
-    <t>125966969</t>
-  </si>
-  <si>
-    <t>3805896</t>
-  </si>
-  <si>
-    <t>physical findings</t>
-  </si>
-  <si>
-    <t>152972615</t>
-  </si>
-  <si>
-    <t>194216565</t>
-  </si>
-  <si>
-    <t>170726968</t>
-  </si>
-  <si>
-    <t>3781389</t>
-  </si>
-  <si>
-    <t>mice, knockout</t>
-  </si>
-  <si>
-    <t>191255179</t>
-  </si>
-  <si>
-    <t>188747619</t>
-  </si>
-  <si>
-    <t>3779305</t>
-  </si>
-  <si>
-    <t>consumption-archaic term for tb</t>
-  </si>
-  <si>
-    <t>183150196</t>
-  </si>
-  <si>
-    <t>189279307</t>
-  </si>
-  <si>
-    <t>3246085</t>
-  </si>
-  <si>
-    <t>division (surgical procedure)</t>
-  </si>
-  <si>
-    <t>175776206</t>
-  </si>
-  <si>
-    <t>122370873</t>
-  </si>
-  <si>
-    <t>3202301</t>
-  </si>
-  <si>
-    <t>systemic arterial pressure</t>
-  </si>
-  <si>
-    <t>190501544</t>
-  </si>
-  <si>
-    <t>121792436</t>
-  </si>
-  <si>
-    <t>2965028</t>
-  </si>
-  <si>
-    <t>flare</t>
-  </si>
-  <si>
-    <t>164053557</t>
-  </si>
-  <si>
-    <t>175510083</t>
+    <t>113205648</t>
+  </si>
+  <si>
+    <t>54061010</t>
+  </si>
+  <si>
+    <t>90551950</t>
+  </si>
+  <si>
+    <t>81226711</t>
+  </si>
+  <si>
+    <t>66611426</t>
+  </si>
+  <si>
+    <t>63987868</t>
   </si>
   <si>
     <t>2395251</t>
@@ -1343,22 +1385,22 @@
     <t>toxic effect</t>
   </si>
   <si>
-    <t>126262844</t>
-  </si>
-  <si>
-    <t>198800047</t>
-  </si>
-  <si>
-    <t>185292742</t>
-  </si>
-  <si>
-    <t>154083268</t>
-  </si>
-  <si>
-    <t>133982739</t>
-  </si>
-  <si>
-    <t>161234821</t>
+    <t>119083441</t>
+  </si>
+  <si>
+    <t>59864743</t>
+  </si>
+  <si>
+    <t>132609174</t>
+  </si>
+  <si>
+    <t>87869920</t>
+  </si>
+  <si>
+    <t>70233506</t>
+  </si>
+  <si>
+    <t>95038596</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1605,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>109.0</v>
+        <v>106.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1616,16 +1658,10 @@
       <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106.0</v>
+        <v>38.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1637,10 +1673,10 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>55</v>
@@ -1655,33 +1691,21 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" t="s">
         <v>66</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37.0</v>
+        <v>26.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1693,10 +1717,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -1711,21 +1735,27 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
         <v>60</v>
       </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1737,63 +1767,51 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" t="s">
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" t="s">
         <v>82</v>
       </c>
-      <c r="L5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>87</v>
-      </c>
       <c r="R5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1805,13 +1823,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1823,22 +1841,16 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1855,10 +1867,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>58</v>
@@ -1873,16 +1885,16 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1899,10 +1911,10 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>58</v>
@@ -1917,16 +1929,16 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1943,10 +1955,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>58</v>
@@ -1961,16 +1973,16 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -1987,10 +1999,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>58</v>
@@ -2005,21 +2017,21 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2031,10 +2043,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>58</v>
@@ -2049,16 +2061,22 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>86</v>
+      </c>
+      <c r="O11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -2075,13 +2093,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -2093,22 +2111,22 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -2125,10 +2143,10 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>55</v>
@@ -2143,13 +2161,13 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
         <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N13" t="s">
         <v>66</v>
@@ -2169,10 +2187,10 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
@@ -2187,13 +2205,13 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
         <v>60</v>
       </c>
       <c r="M14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N14" t="s">
         <v>66</v>
@@ -2201,7 +2219,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2213,51 +2231,99 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
         <v>133</v>
       </c>
-      <c r="F15" t="s">
+      <c r="P15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" t="s">
         <v>134</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="R15" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" t="s">
         <v>135</v>
       </c>
-      <c r="L15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="T15" t="s">
+        <v>130</v>
+      </c>
+      <c r="U15" t="s">
         <v>136</v>
       </c>
-      <c r="N15" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="V15" t="s">
+        <v>111</v>
+      </c>
+      <c r="W15" t="s">
         <v>137</v>
       </c>
-      <c r="P15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="X15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y15" t="s">
         <v>138</v>
       </c>
-      <c r="R15" t="s">
-        <v>66</v>
+      <c r="Z15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2269,13 +2335,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2287,105 +2353,39 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="Q16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="R16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T16" t="s">
-        <v>150</v>
-      </c>
-      <c r="U16" t="s">
-        <v>151</v>
-      </c>
-      <c r="V16" t="s">
-        <v>152</v>
-      </c>
-      <c r="W16" t="s">
-        <v>153</v>
-      </c>
-      <c r="X16" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2397,13 +2397,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2415,39 +2415,33 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="Q17" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="R17" t="s">
-        <v>174</v>
-      </c>
-      <c r="S17" t="s">
-        <v>175</v>
-      </c>
-      <c r="T17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2459,51 +2453,111 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>167</v>
+      </c>
+      <c r="R18" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" t="s">
+        <v>168</v>
+      </c>
+      <c r="T18" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" t="s">
+        <v>169</v>
+      </c>
+      <c r="V18" t="s">
+        <v>111</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s">
         <v>176</v>
       </c>
-      <c r="F18" t="s">
+      <c r="AF18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG18" t="s">
         <v>177</v>
       </c>
-      <c r="G18" t="s">
+      <c r="AH18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI18" t="s">
         <v>178</v>
       </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="AJ18" t="s">
         <v>179</v>
       </c>
-      <c r="L18" t="s">
-        <v>172</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="AK18" t="s">
         <v>180</v>
       </c>
-      <c r="N18" t="s">
-        <v>174</v>
-      </c>
-      <c r="O18" t="s">
-        <v>181</v>
-      </c>
-      <c r="P18" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>182</v>
-      </c>
-      <c r="R18" t="s">
-        <v>66</v>
+      <c r="AL18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -2515,111 +2569,39 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
         <v>183</v>
       </c>
-      <c r="F19" t="s">
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" t="s">
         <v>184</v>
       </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" t="s">
-        <v>186</v>
-      </c>
       <c r="N19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O19" t="s">
-        <v>187</v>
-      </c>
-      <c r="P19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>188</v>
-      </c>
-      <c r="R19" t="s">
-        <v>88</v>
-      </c>
-      <c r="S19" t="s">
-        <v>189</v>
-      </c>
-      <c r="T19" t="s">
-        <v>96</v>
-      </c>
-      <c r="U19" t="s">
-        <v>190</v>
-      </c>
-      <c r="V19" t="s">
-        <v>191</v>
-      </c>
-      <c r="W19" t="s">
-        <v>192</v>
-      </c>
-      <c r="X19" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -2631,13 +2613,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -2649,27 +2631,21 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="N20" t="s">
         <v>60</v>
       </c>
-      <c r="O20" t="s">
-        <v>208</v>
-      </c>
-      <c r="P20" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2681,13 +2657,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -2699,33 +2675,33 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="P21" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q21" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="R21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -2737,10 +2713,10 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
         <v>55</v>
@@ -2755,21 +2731,27 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" t="s">
+        <v>201</v>
+      </c>
+      <c r="P22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2781,13 +2763,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -2799,21 +2781,27 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="O23" t="s">
+        <v>207</v>
+      </c>
+      <c r="P23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -2825,13 +2813,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -2843,22 +2831,16 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="s">
+        <v>211</v>
+      </c>
+      <c r="N24" t="s">
         <v>60</v>
-      </c>
-      <c r="M24" t="s">
-        <v>226</v>
-      </c>
-      <c r="N24" t="s">
-        <v>73</v>
-      </c>
-      <c r="O24" t="s">
-        <v>227</v>
-      </c>
-      <c r="P24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -2875,13 +2857,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -2893,15 +2875,27 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" t="s">
+        <v>216</v>
+      </c>
+      <c r="P25" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>217</v>
+      </c>
+      <c r="R25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2919,13 +2913,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -2937,33 +2931,27 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M26" t="s">
+        <v>221</v>
+      </c>
+      <c r="N26" t="s">
         <v>60</v>
       </c>
-      <c r="M26" t="s">
-        <v>235</v>
-      </c>
-      <c r="N26" t="s">
-        <v>66</v>
-      </c>
       <c r="O26" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="P26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>237</v>
-      </c>
-      <c r="R26" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -2975,13 +2963,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -2993,21 +2981,39 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>228</v>
+      </c>
+      <c r="P27" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>229</v>
+      </c>
+      <c r="R27" t="s">
         <v>66</v>
+      </c>
+      <c r="S27" t="s">
+        <v>230</v>
+      </c>
+      <c r="T27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -3019,13 +3025,13 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -3037,27 +3043,21 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M28" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
-      </c>
-      <c r="O28" t="s">
-        <v>246</v>
-      </c>
-      <c r="P28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -3069,13 +3069,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -3087,21 +3087,39 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" t="s">
+        <v>238</v>
+      </c>
+      <c r="N29" t="s">
         <v>143</v>
       </c>
-      <c r="M29" t="s">
-        <v>250</v>
-      </c>
-      <c r="N29" t="s">
-        <v>60</v>
+      <c r="O29" t="s">
+        <v>239</v>
+      </c>
+      <c r="P29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>240</v>
+      </c>
+      <c r="R29" t="s">
+        <v>111</v>
+      </c>
+      <c r="S29" t="s">
+        <v>241</v>
+      </c>
+      <c r="T29" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3113,10 +3131,10 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
         <v>55</v>
@@ -3131,16 +3149,64 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" t="s">
+        <v>245</v>
+      </c>
+      <c r="N30" t="s">
+        <v>147</v>
+      </c>
+      <c r="O30" t="s">
+        <v>246</v>
+      </c>
+      <c r="P30" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>248</v>
+      </c>
+      <c r="R30" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" t="s">
+        <v>249</v>
+      </c>
+      <c r="T30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30" t="s">
+        <v>250</v>
+      </c>
+      <c r="V30" t="s">
+        <v>108</v>
+      </c>
+      <c r="W30" t="s">
+        <v>251</v>
+      </c>
+      <c r="X30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z30" t="s">
         <v>253</v>
       </c>
-      <c r="L30" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="AA30" t="s">
         <v>254</v>
       </c>
-      <c r="N30" t="s">
-        <v>66</v>
+      <c r="AB30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="31">
@@ -3157,13 +3223,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -3175,33 +3241,27 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="M31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="O31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>261</v>
-      </c>
-      <c r="R31" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -3219,39 +3279,33 @@
         <v>263</v>
       </c>
       <c r="G32" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" t="s">
         <v>264</v>
       </c>
-      <c r="H32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>189</v>
+      </c>
+      <c r="M32" t="s">
         <v>265</v>
       </c>
-      <c r="L32" t="s">
-        <v>266</v>
-      </c>
-      <c r="M32" t="s">
-        <v>267</v>
-      </c>
       <c r="N32" t="s">
-        <v>90</v>
-      </c>
-      <c r="O32" t="s">
-        <v>268</v>
-      </c>
-      <c r="P32" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3263,46 +3317,34 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" t="s">
         <v>269</v>
       </c>
-      <c r="F33" t="s">
-        <v>270</v>
-      </c>
-      <c r="G33" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" t="s">
-        <v>271</v>
-      </c>
-      <c r="L33" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" t="s">
-        <v>272</v>
-      </c>
       <c r="N33" t="s">
-        <v>143</v>
-      </c>
-      <c r="O33" t="s">
-        <v>273</v>
-      </c>
-      <c r="P33" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>274</v>
-      </c>
-      <c r="R33" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
@@ -3319,52 +3361,40 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" t="s">
+        <v>274</v>
+      </c>
+      <c r="N34" t="s">
+        <v>88</v>
+      </c>
+      <c r="O34" t="s">
         <v>275</v>
       </c>
-      <c r="F34" t="s">
-        <v>276</v>
-      </c>
-      <c r="G34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" t="s">
-        <v>277</v>
-      </c>
-      <c r="L34" t="s">
-        <v>145</v>
-      </c>
-      <c r="M34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N34" t="s">
-        <v>145</v>
-      </c>
-      <c r="O34" t="s">
-        <v>279</v>
-      </c>
       <c r="P34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>280</v>
-      </c>
-      <c r="R34" t="s">
-        <v>90</v>
-      </c>
-      <c r="S34" t="s">
-        <v>281</v>
-      </c>
-      <c r="T34" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -3381,13 +3411,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -3399,15 +3429,27 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N35" t="s">
+        <v>166</v>
+      </c>
+      <c r="O35" t="s">
+        <v>280</v>
+      </c>
+      <c r="P35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>281</v>
+      </c>
+      <c r="R35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3425,40 +3467,52 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36" t="s">
+        <v>285</v>
+      </c>
+      <c r="N36" t="s">
+        <v>166</v>
+      </c>
+      <c r="O36" t="s">
         <v>286</v>
       </c>
-      <c r="F36" t="s">
+      <c r="P36" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q36" t="s">
         <v>287</v>
       </c>
-      <c r="G36" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="R36" t="s">
+        <v>130</v>
+      </c>
+      <c r="S36" t="s">
         <v>288</v>
       </c>
-      <c r="L36" t="s">
-        <v>143</v>
-      </c>
-      <c r="M36" t="s">
-        <v>289</v>
-      </c>
-      <c r="N36" t="s">
-        <v>290</v>
-      </c>
-      <c r="O36" t="s">
-        <v>291</v>
-      </c>
-      <c r="P36" t="s">
-        <v>90</v>
+      <c r="T36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -3475,52 +3529,34 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" t="s">
+        <v>174</v>
+      </c>
+      <c r="M37" t="s">
         <v>292</v>
       </c>
-      <c r="F37" t="s">
-        <v>293</v>
-      </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" t="s">
-        <v>294</v>
-      </c>
-      <c r="L37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M37" t="s">
-        <v>295</v>
-      </c>
       <c r="N37" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" t="s">
-        <v>296</v>
-      </c>
-      <c r="P37" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>297</v>
-      </c>
-      <c r="R37" t="s">
-        <v>90</v>
-      </c>
-      <c r="S37" t="s">
-        <v>298</v>
-      </c>
-      <c r="T37" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -3537,46 +3573,52 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" t="s">
+        <v>296</v>
+      </c>
+      <c r="N38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38" t="s">
+        <v>297</v>
+      </c>
+      <c r="P38" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q38" t="s">
         <v>299</v>
       </c>
-      <c r="F38" t="s">
+      <c r="R38" t="s">
+        <v>117</v>
+      </c>
+      <c r="S38" t="s">
         <v>300</v>
       </c>
-      <c r="G38" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" t="s">
-        <v>301</v>
-      </c>
-      <c r="L38" t="s">
-        <v>302</v>
-      </c>
-      <c r="M38" t="s">
-        <v>303</v>
-      </c>
-      <c r="N38" t="s">
-        <v>174</v>
-      </c>
-      <c r="O38" t="s">
-        <v>304</v>
-      </c>
-      <c r="P38" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>305</v>
-      </c>
-      <c r="R38" t="s">
-        <v>174</v>
+      <c r="T38" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3635,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F39" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -3611,22 +3653,16 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M39" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="N39" t="s">
-        <v>62</v>
-      </c>
-      <c r="O39" t="s">
-        <v>310</v>
-      </c>
-      <c r="P39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
@@ -3643,13 +3679,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -3661,16 +3697,16 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s">
+        <v>189</v>
+      </c>
+      <c r="M40" t="s">
+        <v>308</v>
+      </c>
+      <c r="N40" t="s">
         <v>60</v>
-      </c>
-      <c r="M40" t="s">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="41">
@@ -3687,13 +3723,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G41" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -3705,16 +3741,16 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N41" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -3731,40 +3767,64 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" t="s">
+        <v>316</v>
+      </c>
+      <c r="N42" t="s">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s">
+        <v>318</v>
+      </c>
+      <c r="P42" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q42" t="s">
         <v>319</v>
       </c>
-      <c r="F42" t="s">
+      <c r="R42" t="s">
+        <v>108</v>
+      </c>
+      <c r="S42" t="s">
         <v>320</v>
       </c>
-      <c r="G42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="T42" t="s">
+        <v>108</v>
+      </c>
+      <c r="U42" t="s">
         <v>321</v>
       </c>
-      <c r="L42" t="s">
-        <v>193</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="V42" t="s">
+        <v>130</v>
+      </c>
+      <c r="W42" t="s">
         <v>322</v>
       </c>
-      <c r="N42" t="s">
-        <v>101</v>
-      </c>
-      <c r="O42" t="s">
-        <v>323</v>
-      </c>
-      <c r="P42" t="s">
-        <v>200</v>
+      <c r="X42" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -3781,34 +3841,34 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" t="s">
         <v>324</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" t="s">
         <v>325</v>
       </c>
-      <c r="G43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>108</v>
+      </c>
+      <c r="M43" t="s">
         <v>326</v>
       </c>
-      <c r="L43" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" t="s">
-        <v>327</v>
-      </c>
       <c r="N43" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -3825,64 +3885,34 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" t="s">
         <v>328</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" t="s">
         <v>329</v>
       </c>
-      <c r="G44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" t="s">
         <v>330</v>
       </c>
-      <c r="L44" t="s">
-        <v>90</v>
-      </c>
-      <c r="M44" t="s">
-        <v>331</v>
-      </c>
       <c r="N44" t="s">
-        <v>332</v>
-      </c>
-      <c r="O44" t="s">
-        <v>333</v>
-      </c>
-      <c r="P44" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>334</v>
-      </c>
-      <c r="R44" t="s">
-        <v>202</v>
-      </c>
-      <c r="S44" t="s">
-        <v>335</v>
-      </c>
-      <c r="T44" t="s">
-        <v>62</v>
-      </c>
-      <c r="U44" t="s">
-        <v>336</v>
-      </c>
-      <c r="V44" t="s">
-        <v>90</v>
-      </c>
-      <c r="W44" t="s">
-        <v>337</v>
-      </c>
-      <c r="X44" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
@@ -3899,13 +3929,13 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -3917,21 +3947,33 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M45" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N45" t="s">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="O45" t="s">
+        <v>336</v>
+      </c>
+      <c r="P45" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>337</v>
+      </c>
+      <c r="R45" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -3943,34 +3985,40 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" t="s">
+        <v>339</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" t="s">
+        <v>340</v>
+      </c>
+      <c r="L46" t="s">
+        <v>166</v>
+      </c>
+      <c r="M46" t="s">
+        <v>341</v>
+      </c>
+      <c r="N46" t="s">
+        <v>130</v>
+      </c>
+      <c r="O46" t="s">
         <v>342</v>
       </c>
-      <c r="F46" t="s">
-        <v>343</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" t="s">
-        <v>58</v>
-      </c>
-      <c r="K46" t="s">
-        <v>344</v>
-      </c>
-      <c r="L46" t="s">
-        <v>60</v>
-      </c>
-      <c r="M46" t="s">
-        <v>345</v>
-      </c>
-      <c r="N46" t="s">
-        <v>66</v>
+      <c r="P46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -3987,40 +4035,40 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
+        <v>343</v>
+      </c>
+      <c r="F47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" t="s">
+        <v>345</v>
+      </c>
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" t="s">
         <v>346</v>
       </c>
-      <c r="F47" t="s">
+      <c r="N47" t="s">
+        <v>111</v>
+      </c>
+      <c r="O47" t="s">
         <v>347</v>
       </c>
-      <c r="G47" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47" t="s">
-        <v>58</v>
-      </c>
-      <c r="K47" t="s">
-        <v>348</v>
-      </c>
-      <c r="L47" t="s">
-        <v>145</v>
-      </c>
-      <c r="M47" t="s">
-        <v>349</v>
-      </c>
-      <c r="N47" t="s">
-        <v>62</v>
-      </c>
-      <c r="O47" t="s">
-        <v>350</v>
-      </c>
       <c r="P47" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -4037,40 +4085,118 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
+        <v>348</v>
+      </c>
+      <c r="F48" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" t="s">
+        <v>350</v>
+      </c>
+      <c r="L48" t="s">
         <v>351</v>
       </c>
-      <c r="F48" t="s">
+      <c r="M48" t="s">
         <v>352</v>
       </c>
-      <c r="G48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J48" t="s">
-        <v>58</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="N48" t="s">
+        <v>166</v>
+      </c>
+      <c r="O48" t="s">
         <v>353</v>
       </c>
-      <c r="L48" t="s">
-        <v>84</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="P48" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q48" t="s">
         <v>354</v>
       </c>
-      <c r="N48" t="s">
-        <v>96</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="R48" t="s">
+        <v>132</v>
+      </c>
+      <c r="S48" t="s">
         <v>355</v>
       </c>
-      <c r="P48" t="s">
-        <v>62</v>
+      <c r="T48" t="s">
+        <v>166</v>
+      </c>
+      <c r="U48" t="s">
+        <v>356</v>
+      </c>
+      <c r="V48" t="s">
+        <v>171</v>
+      </c>
+      <c r="W48" t="s">
+        <v>357</v>
+      </c>
+      <c r="X48" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>366</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -4087,10 +4213,10 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G49" t="s">
         <v>58</v>
@@ -4105,28 +4231,28 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s">
-        <v>164</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s">
+        <v>373</v>
+      </c>
+      <c r="N49" t="s">
+        <v>111</v>
+      </c>
+      <c r="O49" t="s">
+        <v>374</v>
+      </c>
+      <c r="P49" t="s">
         <v>359</v>
       </c>
-      <c r="N49" t="s">
-        <v>84</v>
-      </c>
-      <c r="O49" t="s">
-        <v>360</v>
-      </c>
-      <c r="P49" t="s">
-        <v>84</v>
-      </c>
       <c r="Q49" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="R49" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -4143,13 +4269,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F50" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G50" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -4161,25 +4287,25 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="M50" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="N50" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="O50" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="P50" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="Q50" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="R50" t="s">
         <v>60</v>
@@ -4199,10 +4325,10 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="F51" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="G51" t="s">
         <v>58</v>
@@ -4217,22 +4343,22 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s">
+        <v>273</v>
+      </c>
+      <c r="M51" t="s">
+        <v>385</v>
+      </c>
+      <c r="N51" t="s">
         <v>60</v>
       </c>
-      <c r="M51" t="s">
-        <v>371</v>
-      </c>
-      <c r="N51" t="s">
-        <v>266</v>
-      </c>
       <c r="O51" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="P51" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -4249,13 +4375,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -4267,16 +4393,22 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="M52" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="N52" t="s">
-        <v>86</v>
+        <v>391</v>
+      </c>
+      <c r="O52" t="s">
+        <v>392</v>
+      </c>
+      <c r="P52" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -4293,13 +4425,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F53" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
         <v>56</v>
@@ -4311,22 +4443,16 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M53" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s">
-        <v>60</v>
-      </c>
-      <c r="O53" t="s">
-        <v>381</v>
-      </c>
-      <c r="P53" t="s">
-        <v>66</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54">
@@ -4343,13 +4469,13 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="F54" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="H54" t="s">
         <v>56</v>
@@ -4361,40 +4487,28 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="M54" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="N54" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="O54" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="P54" t="s">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="Q54" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="R54" t="s">
-        <v>332</v>
-      </c>
-      <c r="S54" t="s">
-        <v>389</v>
-      </c>
-      <c r="T54" t="s">
-        <v>90</v>
-      </c>
-      <c r="U54" t="s">
-        <v>390</v>
-      </c>
-      <c r="V54" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
@@ -4411,13 +4525,13 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F55" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
         <v>56</v>
@@ -4429,34 +4543,22 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="M55" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="N55" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="O55" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="P55" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>396</v>
-      </c>
-      <c r="R55" t="s">
-        <v>90</v>
-      </c>
-      <c r="S55" t="s">
-        <v>397</v>
-      </c>
-      <c r="T55" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
@@ -4473,13 +4575,13 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F56" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H56" t="s">
         <v>56</v>
@@ -4491,64 +4593,40 @@
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s">
-        <v>401</v>
+        <v>317</v>
       </c>
       <c r="M56" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="N56" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="O56" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="P56" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>415</v>
+      </c>
+      <c r="R56" t="s">
         <v>60</v>
       </c>
-      <c r="Q56" t="s">
-        <v>404</v>
-      </c>
-      <c r="R56" t="s">
-        <v>73</v>
-      </c>
       <c r="S56" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="T56" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="U56" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="V56" t="s">
-        <v>407</v>
-      </c>
-      <c r="W56" t="s">
-        <v>408</v>
-      </c>
-      <c r="X56" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>411</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
@@ -4565,10 +4643,10 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F57" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G57" t="s">
         <v>52</v>
@@ -4583,16 +4661,16 @@
         <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="M57" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N57" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58">
@@ -4609,10 +4687,10 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F58" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G58" t="s">
         <v>58</v>
@@ -4627,22 +4705,22 @@
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M58" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="N58" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="O58" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P58" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -4659,10 +4737,10 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G59" t="s">
         <v>55</v>
@@ -4677,13 +4755,13 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L59" t="s">
         <v>60</v>
       </c>
       <c r="M59" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N59" t="s">
         <v>66</v>
@@ -4703,10 +4781,10 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G60" t="s">
         <v>58</v>
@@ -4721,16 +4799,16 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M60" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="N60" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -4747,13 +4825,13 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F61" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G61" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -4765,13 +4843,13 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M61" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N61" t="s">
         <v>60</v>
@@ -4791,10 +4869,10 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F62" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G62" t="s">
         <v>58</v>
@@ -4809,16 +4887,16 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="M62" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N62" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
@@ -4835,10 +4913,10 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F63" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G63" t="s">
         <v>58</v>
@@ -4853,16 +4931,16 @@
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="N63" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64">
@@ -4879,10 +4957,10 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F64" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G64" t="s">
         <v>58</v>
@@ -4897,40 +4975,108 @@
         <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="M64" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="N64" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="O64" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P64" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="Q64" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="R64" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="S64" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="T64" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="U64" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="V64" t="s">
-        <v>90</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>455</v>
+      </c>
+      <c r="F65" t="s">
+        <v>456</v>
+      </c>
+      <c r="G65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65" t="s">
+        <v>457</v>
+      </c>
+      <c r="L65" t="s">
+        <v>130</v>
+      </c>
+      <c r="M65" t="s">
+        <v>458</v>
+      </c>
+      <c r="N65" t="s">
+        <v>108</v>
+      </c>
+      <c r="O65" t="s">
+        <v>459</v>
+      </c>
+      <c r="P65" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>460</v>
+      </c>
+      <c r="R65" t="s">
+        <v>111</v>
+      </c>
+      <c r="S65" t="s">
+        <v>461</v>
+      </c>
+      <c r="T65" t="s">
+        <v>111</v>
+      </c>
+      <c r="U65" t="s">
+        <v>462</v>
+      </c>
+      <c r="V65" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
